--- a/data/trans_orig/P41C_2023-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P41C_2023-Dificultad-trans_orig.xlsx
@@ -741,7 +741,7 @@
         <v>81268</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>74971</v>
+        <v>76461</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>82530</v>
@@ -750,7 +750,7 @@
         <v>0.9847053872487137</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.9084125955115891</v>
+        <v>0.9264612100498539</v>
       </c>
       <c r="I4" s="6" t="n">
         <v>1</v>
@@ -762,19 +762,19 @@
         <v>95689</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>91077</v>
+        <v>89740</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>98688</v>
+        <v>98325</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.9498956593298252</v>
+        <v>0.9498956593298253</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.9041157122087036</v>
+        <v>0.8908441516005973</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9796722425520853</v>
+        <v>0.9760633038015001</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>184</v>
@@ -783,19 +783,19 @@
         <v>176956</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>171012</v>
+        <v>170991</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>180337</v>
+        <v>180230</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.9655715072693947</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.9331341014777883</v>
+        <v>0.9330220342392926</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9840197664185552</v>
+        <v>0.9834333436990979</v>
       </c>
     </row>
     <row r="5">
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>3763</v>
+        <v>3559</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.007225357015461535</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.03735095048587051</v>
+        <v>0.03533233628127143</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1</v>
@@ -849,16 +849,16 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>3693</v>
+        <v>3930</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.003971565484904447</v>
+        <v>0.003971565484904448</v>
       </c>
       <c r="V5" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.02015118909496501</v>
+        <v>0.02144569105685636</v>
       </c>
     </row>
     <row r="6">
@@ -888,19 +888,19 @@
         <v>2679</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>6939</v>
+        <v>6542</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.02659357050412477</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.007080645247655339</v>
+        <v>0.007025696654059258</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.06888376559484892</v>
+        <v>0.06494314502405553</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>4</v>
@@ -909,19 +909,19 @@
         <v>2679</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>695</v>
+        <v>705</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>6308</v>
+        <v>5988</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.01461770075977461</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.003794079253990351</v>
+        <v>0.003848630461872904</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.0344219652519138</v>
+        <v>0.03267455149919099</v>
       </c>
     </row>
     <row r="7">
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>7559</v>
+        <v>6069</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01529461275128627</v>
@@ -950,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.09158740448841075</v>
+        <v>0.07353878995014604</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>0</v>
@@ -975,16 +975,16 @@
         <v>0</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>6317</v>
+        <v>6727</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.006887615563742051</v>
+        <v>0.006887615563742052</v>
       </c>
       <c r="V7" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03446902388819972</v>
+        <v>0.03670647707243103</v>
       </c>
     </row>
     <row r="8">
@@ -1017,7 +1017,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>5358</v>
+        <v>5582</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01628541315058847</v>
@@ -1026,7 +1026,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.05318998572467393</v>
+        <v>0.05541184299080087</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2</v>
@@ -1038,16 +1038,16 @@
         <v>0</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>5641</v>
+        <v>6094</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.008951610922184265</v>
+        <v>0.008951610922184267</v>
       </c>
       <c r="V8" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.03077890594485588</v>
+        <v>0.03325379271737092</v>
       </c>
     </row>
     <row r="9">
@@ -1139,19 +1139,19 @@
         <v>180065</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>172900</v>
+        <v>174248</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>183492</v>
+        <v>183521</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.9702289377259009</v>
+        <v>0.970228937725901</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.9316213307634938</v>
+        <v>0.9388861500787909</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9886945802005261</v>
+        <v>0.9888528659218758</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>260</v>
@@ -1160,19 +1160,19 @@
         <v>198286</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>192036</v>
+        <v>192091</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>202870</v>
+        <v>202806</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.9507650798238722</v>
+        <v>0.9507650798238719</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.9207955966842363</v>
+        <v>0.92106327108102</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9727434961595367</v>
+        <v>0.9724373606360651</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>407</v>
@@ -1181,19 +1181,19 @@
         <v>378351</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>370184</v>
+        <v>370280</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>384772</v>
+        <v>384510</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9599300062870366</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9392102289173607</v>
+        <v>0.9394524019520663</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.976222559208187</v>
+        <v>0.9755580907550099</v>
       </c>
     </row>
     <row r="11">
@@ -1213,7 +1213,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>5741</v>
+        <v>5689</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.006059879141873992</v>
@@ -1222,7 +1222,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.03093370835971228</v>
+        <v>0.03065537172584089</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1</v>
@@ -1234,16 +1234,16 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>3401</v>
+        <v>3626</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.003551852908313373</v>
+        <v>0.003551852908313372</v>
       </c>
       <c r="O11" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.01630913642788179</v>
+        <v>0.0173862276127203</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2</v>
@@ -1255,7 +1255,7 @@
         <v>0</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>6182</v>
+        <v>6340</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.004732804604219193</v>
@@ -1264,7 +1264,7 @@
         <v>0</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.01568521566452783</v>
+        <v>0.0160856636077565</v>
       </c>
     </row>
     <row r="12">
@@ -1284,7 +1284,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7379</v>
+        <v>7735</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.011204610855704</v>
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.03975875161917526</v>
+        <v>0.04167818671316511</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>10</v>
@@ -1302,19 +1302,19 @@
         <v>7269</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>3503</v>
+        <v>3653</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>12194</v>
+        <v>12683</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.03485457705919368</v>
+        <v>0.03485457705919366</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.0167978380876095</v>
+        <v>0.01751772339466032</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.05846812963456222</v>
+        <v>0.06081498671492601</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>12</v>
@@ -1323,19 +1323,19 @@
         <v>9349</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>4922</v>
+        <v>4991</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>15537</v>
+        <v>15802</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.02371854214759895</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01248758290035438</v>
+        <v>0.01266241858727762</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.03941854839015729</v>
+        <v>0.04009126869795625</v>
       </c>
     </row>
     <row r="13">
@@ -1402,7 +1402,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>8148</v>
+        <v>7055</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01250657227652111</v>
@@ -1411,7 +1411,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.04390144519434176</v>
+        <v>0.03801215521888149</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3</v>
@@ -1420,19 +1420,19 @@
         <v>2258</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>720</v>
+        <v>728</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>6120</v>
+        <v>6055</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.01082849020862093</v>
+        <v>0.01082849020862092</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.003453734110765911</v>
+        <v>0.00349180932034848</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.02934338791116829</v>
+        <v>0.02903455139010996</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>5</v>
@@ -1441,19 +1441,19 @@
         <v>4579</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1633</v>
+        <v>1490</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>10276</v>
+        <v>9445</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01161864696114517</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.004144098032529517</v>
+        <v>0.003780435455178213</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.02607150486664906</v>
+        <v>0.02396377518960128</v>
       </c>
     </row>
     <row r="15">
@@ -1545,19 +1545,19 @@
         <v>182410</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>169862</v>
+        <v>168265</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>189672</v>
+        <v>188633</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.9328359251942436</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8686689180659292</v>
+        <v>0.8605019067196232</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9699738065105792</v>
+        <v>0.9646627302210705</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>300</v>
@@ -1566,19 +1566,19 @@
         <v>226780</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>221144</v>
+        <v>221240</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>230700</v>
+        <v>230743</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.9667955306872072</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.9427670882892356</v>
+        <v>0.9431748734385964</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.9835046678659363</v>
+        <v>0.98369085485218</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>459</v>
@@ -1587,19 +1587,19 @@
         <v>409190</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>395148</v>
+        <v>395189</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>417554</v>
+        <v>417359</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.9513563742827065</v>
+        <v>0.9513563742827061</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.918708435792875</v>
+        <v>0.9188042820247568</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.9708038224692905</v>
+        <v>0.9703505275800529</v>
       </c>
     </row>
     <row r="17">
@@ -1632,7 +1632,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>5351</v>
+        <v>5272</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.006730247052289166</v>
@@ -1641,7 +1641,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.02281181578044332</v>
+        <v>0.02247338251332398</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>2</v>
@@ -1653,16 +1653,16 @@
         <v>0</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5330</v>
+        <v>5138</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.003670454826412046</v>
+        <v>0.003670454826412045</v>
       </c>
       <c r="V17" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.01239306929488548</v>
+        <v>0.01194644370512526</v>
       </c>
     </row>
     <row r="18">
@@ -1679,19 +1679,19 @@
         <v>6294</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2523</v>
+        <v>2118</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>13434</v>
+        <v>13528</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.03218540741323895</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.01290237615815479</v>
+        <v>0.010833823527153</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.06869850064408482</v>
+        <v>0.06918138195776803</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>2</v>
@@ -1703,7 +1703,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>5382</v>
+        <v>5594</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.007052750956841956</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.02294285488044611</v>
+        <v>0.02384669652796589</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>8</v>
@@ -1721,19 +1721,19 @@
         <v>7948</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>3757</v>
+        <v>3996</v>
       </c>
       <c r="T18" s="5" t="n">
         <v>15700</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.01847888527902374</v>
+        <v>0.01847888527902373</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.008735811685082088</v>
+        <v>0.009291333830026552</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.03650247595536921</v>
+        <v>0.03650309507665318</v>
       </c>
     </row>
     <row r="19">
@@ -1775,7 +1775,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.01552298363693655</v>
+        <v>0.01552261336821763</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>1</v>
@@ -1787,16 +1787,16 @@
         <v>0</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>3272</v>
+        <v>3652</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.001540937755816834</v>
+        <v>0.001540937755816833</v>
       </c>
       <c r="V19" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.007607902425832705</v>
+        <v>0.00849154010506346</v>
       </c>
     </row>
     <row r="20">
@@ -1813,19 +1813,19 @@
         <v>6840</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1852</v>
+        <v>2021</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>21693</v>
+        <v>20207</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.03497866739251745</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.009473166681488144</v>
+        <v>0.01033496461091014</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1109364976957259</v>
+        <v>0.1033399182381778</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>5</v>
@@ -1834,19 +1834,19 @@
         <v>3893</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1420</v>
+        <v>1430</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>8472</v>
+        <v>8490</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.016595965397903</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.006051940152675716</v>
+        <v>0.00609742024036739</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.03611936592659495</v>
+        <v>0.03619550972820505</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>9</v>
@@ -1855,19 +1855,19 @@
         <v>10733</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>5051</v>
+        <v>4742</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>24878</v>
+        <v>25361</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.0249533478560411</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01174355794631059</v>
+        <v>0.01102606743131775</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.05784142762678181</v>
+        <v>0.05896256284193797</v>
       </c>
     </row>
     <row r="21">
@@ -1959,19 +1959,19 @@
         <v>221176</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>212708</v>
+        <v>213027</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>226124</v>
+        <v>226076</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.962426906156397</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.925577324330256</v>
+        <v>0.9269666313490635</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9839550067872995</v>
+        <v>0.9837492077265806</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>283</v>
@@ -1980,19 +1980,19 @@
         <v>210813</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>203865</v>
+        <v>204239</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>214907</v>
+        <v>215393</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9605203349591567</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9288646959256458</v>
+        <v>0.9305672889225703</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9791737468772573</v>
+        <v>0.9813875814920997</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>472</v>
@@ -2001,19 +2001,19 @@
         <v>431989</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>422042</v>
+        <v>423206</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>438597</v>
+        <v>438836</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.961495544175915</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9393558737280786</v>
+        <v>0.9419464637958266</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9762024664373703</v>
+        <v>0.9767340794091015</v>
       </c>
     </row>
     <row r="23">
@@ -2033,7 +2033,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>6038</v>
+        <v>5865</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.004934303975106203</v>
@@ -2042,7 +2042,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.02627505331542097</v>
+        <v>0.02552024996109334</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>1</v>
@@ -2054,7 +2054,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>1797</v>
+        <v>1602</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.00157285425085561</v>
@@ -2063,7 +2063,7 @@
         <v>0</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.008188203409167616</v>
+        <v>0.007299006795759002</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>2</v>
@@ -2075,16 +2075,16 @@
         <v>0</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>5984</v>
+        <v>6918</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.003292232345680525</v>
+        <v>0.003292232345680526</v>
       </c>
       <c r="V23" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.01331915676256826</v>
+        <v>0.01539857134310459</v>
       </c>
     </row>
     <row r="24">
@@ -2101,19 +2101,19 @@
         <v>3754</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1095</v>
+        <v>1083</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>10801</v>
+        <v>10139</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.01633387045775688</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.004763952418164875</v>
+        <v>0.004714614371279961</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.04700092369105371</v>
+        <v>0.04412094750210093</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>7</v>
@@ -2122,19 +2122,19 @@
         <v>4894</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>2022</v>
+        <v>2100</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>9809</v>
+        <v>9575</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.02229968570226956</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.00921158382401588</v>
+        <v>0.009565991152941969</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.04469207675452343</v>
+        <v>0.04362427268976182</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>10</v>
@@ -2143,19 +2143,19 @@
         <v>8648</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>4494</v>
+        <v>4476</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>15874</v>
+        <v>15766</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.01924817730838023</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.01000280609817524</v>
+        <v>0.009962598301124313</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.03533050279016715</v>
+        <v>0.03509004714397777</v>
       </c>
     </row>
     <row r="25">
@@ -2175,7 +2175,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>7173</v>
+        <v>8008</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.006339942938721676</v>
@@ -2184,7 +2184,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03121055140085206</v>
+        <v>0.03484643614808836</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1</v>
@@ -2196,7 +2196,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>5407</v>
+        <v>5584</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.004980691128953709</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.02463382034624475</v>
+        <v>0.02544052540447528</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>2</v>
@@ -2217,16 +2217,16 @@
         <v>0</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>8037</v>
+        <v>7964</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.005675947038987347</v>
+        <v>0.005675947038987348</v>
       </c>
       <c r="V25" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.01788730188090981</v>
+        <v>0.01772540506997445</v>
       </c>
     </row>
     <row r="26">
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>7059</v>
+        <v>8157</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.009964976472018206</v>
@@ -2255,7 +2255,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.03071701172226047</v>
+        <v>0.03549343478806632</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2</v>
@@ -2267,7 +2267,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>7971</v>
+        <v>8892</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01062643395876442</v>
@@ -2276,7 +2276,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.03631956368518616</v>
+        <v>0.04051451765726317</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>4</v>
@@ -2285,19 +2285,19 @@
         <v>4622</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1165</v>
+        <v>1144</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>11282</v>
+        <v>10338</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.0102880991310368</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.002592581165071342</v>
+        <v>0.002545906741405636</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.02511061550204207</v>
+        <v>0.02300943018904716</v>
       </c>
     </row>
     <row r="27">
@@ -2389,19 +2389,19 @@
         <v>664919</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>649280</v>
+        <v>649886</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>674773</v>
+        <v>674970</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.9588223252645035</v>
+        <v>0.9588223252645033</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.9362702396184521</v>
+        <v>0.9371436177241398</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.9730312007289049</v>
+        <v>0.9733158534967387</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>960</v>
@@ -2410,19 +2410,19 @@
         <v>731568</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>720241</v>
+        <v>720562</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>739482</v>
+        <v>739727</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.9583812824472373</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.9435427065441312</v>
+        <v>0.9439630340710967</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.9687487415743146</v>
+        <v>0.9690702592695409</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1522</v>
@@ -2431,19 +2431,19 @@
         <v>1396487</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1378505</v>
+        <v>1376948</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1411181</v>
+        <v>1409742</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.9585912285737572</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.9462478251916733</v>
+        <v>0.9451790994783674</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.9686778341759102</v>
+        <v>0.9676898849340391</v>
       </c>
     </row>
     <row r="29">
@@ -2463,16 +2463,16 @@
         <v>0</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>6769</v>
+        <v>7861</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.003256949972968961</v>
+        <v>0.00325694997296896</v>
       </c>
       <c r="H29" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.009761306202628781</v>
+        <v>0.01133533591705359</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>5</v>
@@ -2481,19 +2481,19 @@
         <v>3393</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1104</v>
+        <v>1240</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>8392</v>
+        <v>7934</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.004444328115006576</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.001446256441076773</v>
+        <v>0.001624295129874363</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.01099332428629472</v>
+        <v>0.01039439924922872</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>7</v>
@@ -2502,19 +2502,19 @@
         <v>5651</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>2321</v>
+        <v>2302</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>12218</v>
+        <v>11715</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.00387910988249933</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.001593399803060192</v>
+        <v>0.001580162553273582</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.008387022078988445</v>
+        <v>0.008041461925075327</v>
       </c>
     </row>
     <row r="30">
@@ -2531,19 +2531,19 @@
         <v>12127</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>6453</v>
+        <v>6417</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>21053</v>
+        <v>21893</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.01748702227630679</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.009304804797249698</v>
+        <v>0.009253062596431756</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.03035877542181187</v>
+        <v>0.03157009357852251</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>23</v>
@@ -2552,19 +2552,19 @@
         <v>16497</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>10870</v>
+        <v>10692</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>24476</v>
+        <v>23937</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.02161121344357752</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.01424054107423707</v>
+        <v>0.01400731871332226</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.03206444353774459</v>
+        <v>0.03135786309381663</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>34</v>
@@ -2573,19 +2573,19 @@
         <v>28623</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>19314</v>
+        <v>20685</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>38877</v>
+        <v>39493</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.01964800731777963</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.01325775824854235</v>
+        <v>0.01419857124779045</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.02668615169956744</v>
+        <v>0.02710909898465735</v>
       </c>
     </row>
     <row r="31">
@@ -2605,16 +2605,16 @@
         <v>0</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>9465</v>
+        <v>9044</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>0.00392120429709459</v>
+        <v>0.003921204297094589</v>
       </c>
       <c r="H31" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.01364917137056761</v>
+        <v>0.01304164156044728</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>2</v>
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>5321</v>
+        <v>6179</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.002300332638364427</v>
@@ -2635,7 +2635,7 @@
         <v>0</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.006971087344350676</v>
+        <v>0.008094667029172281</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>4</v>
@@ -2644,19 +2644,19 @@
         <v>4475</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>1239</v>
+        <v>1319</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>11373</v>
+        <v>11310</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.003071903363505439</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.0008504725866493381</v>
+        <v>0.0009056631514462224</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.007806893804601293</v>
+        <v>0.007763518234330025</v>
       </c>
     </row>
     <row r="32">
@@ -2673,19 +2673,19 @@
         <v>11451</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>4789</v>
+        <v>5394</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>26166</v>
+        <v>25579</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.01651249818912625</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.006905178493388319</v>
+        <v>0.007778722996579833</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.03773134396400509</v>
+        <v>0.03688492150557045</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>12</v>
@@ -2694,19 +2694,19 @@
         <v>10124</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>5732</v>
+        <v>5606</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>18337</v>
+        <v>17714</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.01326284335581416</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.007509301128892274</v>
+        <v>0.007344647775318641</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.02402265733142955</v>
+        <v>0.02320592446714823</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>20</v>
@@ -2715,19 +2715,19 @@
         <v>21575</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>13301</v>
+        <v>13754</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>36901</v>
+        <v>38287</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.01480975086245841</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.00913003752709436</v>
+        <v>0.009440956169309131</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.02532982815228369</v>
+        <v>0.02628134881675242</v>
       </c>
     </row>
     <row r="33">
